--- a/public/sample_leads.xlsx
+++ b/public/sample_leads.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kripa\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OFFICE PROJECTS\CRM\CRMADMINPANEL\CRMADMINPANEL\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,24 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Nikhil Kumar</t>
   </si>
   <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>Add</t>
-  </si>
-  <si>
     <t>Ved Prakash</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>Social Media</t>
   </si>
   <si>
     <t>name</t>
@@ -50,10 +38,7 @@
     <t>phone</t>
   </si>
   <si>
-    <t>priority</t>
-  </si>
-  <si>
-    <t>sources</t>
+    <t>(The headings for Name and Phone Number must remain as they are.)</t>
   </si>
 </sst>
 </file>
@@ -381,10 +366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -394,51 +379,37 @@
     <col min="3" max="3" width="17.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
         <v>12345666</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>3</v>
       </c>
       <c r="B3">
         <v>73428748734</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
